--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Please check the</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -607,6 +607,31 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Aircraft may be in violation of local laws and regulations</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4-13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please check the</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -607,31 +607,6 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4-13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Missing</t>
         </is>
       </c>
     </row>
